--- a/01/TP1/primera_estimacion.xlsx
+++ b/01/TP1/primera_estimacion.xlsx
@@ -371,702 +371,702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99.999999999999</v>
+        <v>429.784024433805</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00000000000001</v>
+        <v>1.99644735702519</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>-0.114384963303787</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.999999999999994</v>
+        <v>-0.792686380494269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99.9999999999999</v>
+        <v>84.4863352522974</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5.34687326238627</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>2.73316748329115</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-3.43354078903461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99.9999999999996</v>
+        <v>-366.993903612933</v>
       </c>
       <c r="B4" t="n">
-        <v>2.99999999999999</v>
+        <v>6.96647341902414</v>
       </c>
       <c r="C4" t="n">
-        <v>2.00000000000001</v>
+        <v>4.74079790545461</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.999999999999997</v>
+        <v>-1.20624802570672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99.9999999999992</v>
+        <v>184.15866008819</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1.46298463301985</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3.04942930225198</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.999999999999991</v>
+        <v>-1.77077054839832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.9999999999994</v>
+        <v>-246.493249735158</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>3.28354589827286</v>
       </c>
       <c r="C6" t="n">
-        <v>1.99999999999999</v>
+        <v>5.99186724343132</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.999999999999997</v>
+        <v>-1.37077636253643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100</v>
+        <v>-179.919029046296</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2.39053123485198</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3.36203124866519</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>-0.00114402944906056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100.000000000001</v>
+        <v>-137.752882913525</v>
       </c>
       <c r="B8" t="n">
-        <v>3.00000000000001</v>
+        <v>1.36464687948018</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>2.43044574020256</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.00000000000001</v>
+        <v>2.53368224022279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99.9999999999992</v>
+        <v>187.486572132716</v>
       </c>
       <c r="B9" t="n">
-        <v>3.00000000000001</v>
+        <v>2.82976065595105</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3.44118695779213</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.99999999999999</v>
+        <v>-2.80960896481803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100</v>
+        <v>67.7552558236255</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1.3902761992774</v>
       </c>
       <c r="C10" t="n">
-        <v>1.99999999999999</v>
+        <v>3.0461364548586</v>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>-1.6541351023776</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100</v>
+        <v>66.7629538697193</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4.31897520118759</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>-0.762513459226642</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-0.270669334866611</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99.9999999999998</v>
+        <v>-278.705041267217</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5.18967400216556</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3.52275221190445</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.999999999999998</v>
+        <v>0.290270733734529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99.9999999999985</v>
+        <v>-136.005674582365</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2.47893515034215</v>
       </c>
       <c r="C13" t="n">
-        <v>2.00000000000001</v>
+        <v>4.08873148160525</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-0.543134669936699</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100</v>
+        <v>-91.4515859727651</v>
       </c>
       <c r="B14" t="n">
-        <v>3.00000000000001</v>
+        <v>0.0744720571628989</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>2.4173310887347</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.00000000000001</v>
+        <v>2.55660144266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100.000000000001</v>
+        <v>-901.073477899337</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5.05904784537786</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4.28791115642513</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.00000000000001</v>
+        <v>3.96720866580386</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100.000000000002</v>
+        <v>434.988141590168</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2.33719735034233</v>
       </c>
       <c r="C16" t="n">
-        <v>1.99999999999999</v>
+        <v>-0.548728692742736</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.00000000000001</v>
+        <v>-1.63544903439508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100</v>
+        <v>18.6851284464757</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2.74151406717428</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>2.61368516739213</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>0.203405435199325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100.000000000001</v>
+        <v>317.088081632964</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>-0.071817593457086</v>
       </c>
       <c r="C18" t="n">
-        <v>1.99999999999999</v>
+        <v>1.54296779301599</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-0.265011569321568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>99.9999999999996</v>
+        <v>425.079721942436</v>
       </c>
       <c r="B19" t="n">
-        <v>3.00000000000001</v>
+        <v>4.47293595555186</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0.0557637158246015</v>
       </c>
       <c r="D19" t="n">
-        <v>-1</v>
+        <v>-4.67381872548004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100.000000000001</v>
+        <v>97.260415938179</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>2.1701858373731</v>
       </c>
       <c r="C20" t="n">
-        <v>1.99999999999999</v>
+        <v>1.21435519059035</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>-0.985199896441829</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100.000000000001</v>
+        <v>471.197744775781</v>
       </c>
       <c r="B21" t="n">
-        <v>3.00000000000001</v>
+        <v>1.49542877072328</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1.19714226501805</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.00000000000001</v>
+        <v>-1.90449838242988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>99.9999999999995</v>
+        <v>-254.419245468517</v>
       </c>
       <c r="B22" t="n">
-        <v>3.00000000000001</v>
+        <v>2.9259270081306</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5.4527442024676</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.999999999999999</v>
+        <v>-1.03789168272161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99.9999999999993</v>
+        <v>-310.158902986511</v>
       </c>
       <c r="B23" t="n">
-        <v>3.00000000000001</v>
+        <v>4.44310982276733</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>2.98994043327788</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.999999999999999</v>
+        <v>-0.571397439487273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99.9999999999995</v>
+        <v>115.343827776419</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1.51216635647554</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1.27776482302293</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.999999999999997</v>
+        <v>-0.707089898032061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100</v>
+        <v>-149.417048561153</v>
       </c>
       <c r="B25" t="n">
-        <v>3.00000000000001</v>
+        <v>1.22939027851497</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1.50339327758599</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.00000000000001</v>
+        <v>3.09149509487945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100.000000000001</v>
+        <v>61.4653111847808</v>
       </c>
       <c r="B26" t="n">
-        <v>3.00000000000001</v>
+        <v>6.08015214970186</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1.13962377219915</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.00000000000001</v>
+        <v>-1.30286585766886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>100</v>
+        <v>917.495905293913</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2.0922924036821</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>-1.79634565208329</v>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>-3.87201994789619</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99.9999999999998</v>
+        <v>440.415643951051</v>
       </c>
       <c r="B28" t="n">
-        <v>3.00000000000001</v>
+        <v>2.62500444875844</v>
       </c>
       <c r="C28" t="n">
-        <v>2.00000000000001</v>
+        <v>0.644582690304518</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.00000000000001</v>
+        <v>-1.55968415732773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100</v>
+        <v>-22.7219475697464</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>3.7207097446699</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>2.11449327096845</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>-0.848384741252086</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99.9999999999991</v>
+        <v>-215.053496076375</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2.91915862148961</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>2.42498030533021</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.999999999999997</v>
+        <v>1.34167729068248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>100</v>
+        <v>-74.2694439463932</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2.60798348275457</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3.96083739194654</v>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>-3.0575604691905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100.000000000001</v>
+        <v>454.120189672118</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>3.59708282031777</v>
       </c>
       <c r="C32" t="n">
-        <v>1.99999999999999</v>
+        <v>-2.24671744179009</v>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>-1.50056052537272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99.9999999999993</v>
+        <v>-123.267516467917</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2.12747407386359</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3.70684045627107</v>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>1.41868104956053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100</v>
+        <v>-675.020613931393</v>
       </c>
       <c r="B34" t="n">
-        <v>2.99999999999999</v>
+        <v>4.71477907033269</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1.48770854072064</v>
       </c>
       <c r="D34" t="n">
-        <v>-1</v>
+        <v>4.44477684116643</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>100</v>
+        <v>542.395694785729</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2.35836335061844</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>-0.19728912220238</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>-2.1609608715674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100.000000000001</v>
+        <v>569.044758652748</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4.25245838235757</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1.86488600151981</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.00000000000001</v>
+        <v>-5.46138144072947</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>99.9999999999994</v>
+        <v>196.929757061744</v>
       </c>
       <c r="B37" t="n">
-        <v>3.00000000000001</v>
+        <v>2.22751670380517</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>2.02457137676015</v>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>0.265988874645777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100.000000000001</v>
+        <v>706.711236870923</v>
       </c>
       <c r="B38" t="n">
-        <v>2.99999999999999</v>
+        <v>-1.10595973141387</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4.32173289396317</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.00000000000001</v>
+        <v>-4.89015309016278</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>99.9999999999991</v>
+        <v>214.847613890106</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4.52598032536744</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>-1.1522685535322</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.99999999999999</v>
+        <v>-0.710313722500078</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100</v>
+        <v>-295.144104206891</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>6.30598806432956</v>
       </c>
       <c r="C40" t="n">
-        <v>2.00000000000001</v>
+        <v>4.70818573153419</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-4.44141754926079</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>100</v>
+        <v>-308.911377738305</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>0.144569103042921</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4.06142283068175</v>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>2.60476888588884</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>100.000000000001</v>
+        <v>-3.10982427906564</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>0.14701713844219</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>2.12012161150892</v>
       </c>
       <c r="D42" t="n">
-        <v>-1</v>
+        <v>2.21270577385129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>99.9999999999997</v>
+        <v>347.637279608792</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2.67481665044911</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0.792118300462964</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.999999999999995</v>
+        <v>-2.09575417185912</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>100.000000000001</v>
+        <v>-244.530609484588</v>
       </c>
       <c r="B44" t="n">
-        <v>2.99999999999999</v>
+        <v>6.08957535171984</v>
       </c>
       <c r="C44" t="n">
-        <v>1.99999999999999</v>
+        <v>3.64603289091315</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.999999999999997</v>
+        <v>-2.57027708138581</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>100</v>
+        <v>-57.0980562447802</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>4.33830598021469</v>
       </c>
       <c r="C45" t="n">
-        <v>1.99999999999999</v>
+        <v>1.33349561859247</v>
       </c>
       <c r="D45" t="n">
-        <v>-1</v>
+        <v>-0.262793002680364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>99.9999999999998</v>
+        <v>-50.2930182449531</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>2.91438802496869</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1.57665691763428</v>
       </c>
       <c r="D46" t="n">
-        <v>-1</v>
+        <v>-0.537128917052713</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>99.9999999999991</v>
+        <v>312.269751727097</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>2.39181961545193</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0.289067227120866</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>-0.704956343947354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>100</v>
+        <v>245.505184314341</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>3.37841903759052</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>-0.566937599178878</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.999999999999992</v>
+        <v>1.65768297765176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>99.9999999999999</v>
+        <v>-65.0396488104059</v>
       </c>
       <c r="B49" t="n">
-        <v>2.99999999999999</v>
+        <v>1.28649829504269</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3.31214038143589</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.999999999999994</v>
+        <v>1.3815437693184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>99.9999999999976</v>
+        <v>166.167391424325</v>
       </c>
       <c r="B50" t="n">
-        <v>3.00000000000001</v>
+        <v>1.94491915706699</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1.52225755068471</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.999999999999992</v>
+        <v>-0.890834682970701</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>99.9999999999997</v>
+        <v>652.941453791725</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>0.403163982588163</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1.21774102000693</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>-2.52292817167388</v>
       </c>
     </row>
   </sheetData>
